--- a/resources/repository/LibertyMutual.xlsx
+++ b/resources/repository/LibertyMutual.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="1545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="LibertyMutual" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="86">
   <si>
     <t>TestCase Id</t>
   </si>
@@ -57,18 +58,39 @@
     <t>VehicleDetail_rdbParkingDetails</t>
   </si>
   <si>
+    <t>VehicleDetail_txtAddress1</t>
+  </si>
+  <si>
+    <t>VehicleDetail_txtAddress2</t>
+  </si>
+  <si>
+    <t>VehicleDetail_txtZipCode</t>
+  </si>
+  <si>
+    <t>VehicleDetail_txtCity</t>
+  </si>
+  <si>
     <t>DriverDetails_rdbMaritalStatus</t>
   </si>
   <si>
     <t>DriverDetails_rdbGender</t>
   </si>
   <si>
+    <t>DriverDetails_txtLicensingAge</t>
+  </si>
+  <si>
+    <t>DriverDetails_rdbFullTimeBGradeAvgStudent</t>
+  </si>
+  <si>
     <t>DriverDetails_txtPhoneNumber</t>
   </si>
   <si>
     <t>Discounts_rdbOtherPolicies</t>
   </si>
   <si>
+    <t>Discounts_rdbOtherLibertyMutualPolicy</t>
+  </si>
+  <si>
     <t>Discounts_rdbEmploymentStatus</t>
   </si>
   <si>
@@ -81,87 +103,205 @@
     <t>Discounts_rdbSave30%?</t>
   </si>
   <si>
+    <t>Discount_rdbUseOfWhichSmartPhone</t>
+  </si>
+  <si>
+    <t>Discount_rdbDoYouWantToReceiveMsg</t>
+  </si>
+  <si>
+    <t>Discount_txtNoToSendText</t>
+  </si>
+  <si>
     <t>CurrentInsurance_rdbInsuranceHistory</t>
   </si>
   <si>
+    <t>CurrentInsurance_txtFirstInsuranceDate</t>
+  </si>
+  <si>
+    <t>CurrentInsurance_ddBodilyInjuryLimit</t>
+  </si>
+  <si>
+    <t>CurrentInsuranc_txtReasonForNotHavingInsurance</t>
+  </si>
+  <si>
     <t>CurrentInsurance_rdbWhy?</t>
   </si>
   <si>
     <t>CurrentInsurance_ddPolicyDate</t>
   </si>
   <si>
-    <t>TC01</t>
+    <t>Prashant</t>
+  </si>
+  <si>
+    <t>Dhar</t>
+  </si>
+  <si>
+    <t>01/01/1986</t>
+  </si>
+  <si>
+    <t>House No. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park street </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>prashant.dhar2016@abc.com</t>
+  </si>
+  <si>
+    <t>5TDDK3DC6ES077574</t>
+  </si>
+  <si>
+    <t>Fully Own</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Bachelors degree</t>
+  </si>
+  <si>
+    <t>Yes, Single or multi-Family</t>
+  </si>
+  <si>
+    <t>No, thanks</t>
+  </si>
+  <si>
+    <t>I'm Newly licensed</t>
+  </si>
+  <si>
+    <t>January 25, 2021</t>
   </si>
   <si>
     <t>03820</t>
   </si>
   <si>
-    <t>01/01/1986</t>
-  </si>
-  <si>
-    <t>House No. 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Park street </t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>prashant.dhar2016@abc.com</t>
-  </si>
-  <si>
-    <t>5TDDK3DC6ES077574</t>
-  </si>
-  <si>
-    <t>Fully Own</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Bachelors degree</t>
-  </si>
-  <si>
-    <t>Yes, Single or multi-Family</t>
-  </si>
-  <si>
-    <t>No, thanks</t>
-  </si>
-  <si>
-    <t>I'm Newly licensed</t>
-  </si>
-  <si>
-    <t>January 25, 2021</t>
+    <t>TC03</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>01/01/1987</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Park street</t>
+  </si>
+  <si>
+    <t>full paid</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>employed</t>
+  </si>
+  <si>
+    <t>highschool</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>asasasasas</t>
+  </si>
+  <si>
+    <t>TC01(Valid Test)</t>
+  </si>
+  <si>
+    <t>House Number 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -173,6 +313,24 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -190,24 +348,195 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,193 +755,900 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="7" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" customWidth="1"/>
-    <col min="13" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" customWidth="1"/>
-    <col min="17" max="19" width="28.28515625" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" customWidth="1"/>
-    <col min="21" max="22" width="34" customWidth="1"/>
-    <col min="23" max="23" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" customWidth="1"/>
+    <col min="12" max="12" width="36.140625" customWidth="1"/>
+    <col min="13" max="14" width="29.7109375" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" customWidth="1"/>
+    <col min="17" max="17" width="34.7109375" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" customWidth="1"/>
+    <col min="19" max="19" width="34.28515625" customWidth="1"/>
+    <col min="20" max="20" width="50.5703125" customWidth="1"/>
+    <col min="21" max="21" width="35.140625" customWidth="1"/>
+    <col min="22" max="23" width="32" customWidth="1"/>
+    <col min="24" max="24" width="37.85546875" customWidth="1"/>
+    <col min="25" max="25" width="36.5703125" customWidth="1"/>
+    <col min="26" max="26" width="28.28515625" customWidth="1"/>
+    <col min="27" max="30" width="28.5703125" customWidth="1"/>
+    <col min="31" max="34" width="44" customWidth="1"/>
+    <col min="35" max="35" width="31.42578125" customWidth="1"/>
+    <col min="36" max="36" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:39" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="22">
+        <v>31413</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="J2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="21"/>
+      <c r="O2" s="25">
+        <v>3820</v>
+      </c>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="21">
+        <v>16</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="21">
+        <v>9876543210</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>1231231231</v>
+      </c>
+      <c r="AE2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI2" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="27">
+        <v>44221</v>
+      </c>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+    </row>
+    <row r="3" spans="1:39" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ3" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="D5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+    </row>
+    <row r="6" spans="1:39" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="E6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="F6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="G6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
+      <c r="H6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
+    <row r="7" spans="1:39" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="20">
+        <v>43831</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
+    <row r="8" spans="1:39" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ8" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-    </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+    <row r="9" spans="1:39" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>